--- a/medicine/Psychotrope/Die_Freien_Brauer/Die_Freien_Brauer.xlsx
+++ b/medicine/Psychotrope/Die_Freien_Brauer/Die_Freien_Brauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Die Freien Brauer GmbH &amp; Co. KG (en français, Les Brasseurs indépendants) est une association d'une quarantaine de brasseries de taille intermédiaire d'Allemagne, d'Autriche, du Luxembourg et des Pays-Bas qui se sont fixé comme objet de préserver la diversité de la bière et la culture de la bière.
 </t>
@@ -511,7 +523,9 @@
           <t>Objets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces entreprises croient la diversité des brasseurs en Allemagne, en Autriche et aux Pays-Bas gravement menacée par de sérieux changements dans l'industrie brassicole. Les brasseurs nationaux et internationaux brassent les deux tiers de la production de bière en Allemagne. Le marché autrichien de la bière avec 8,9 millions d'hectolitres en 2009 est dominé par un groupe international avec une part de marché d'environ 48%. Les brasseries coopératives proposent plus de 350 bières différentes. L'un des principaux objectifs des Freien Brauer est que les consommateurs connaissent, consomment et apprécient à nouveau la diversité des bières.
 Les membres travaillent ensemble depuis 1969 dans la Deutsche Brau-Kooperation, une association de brasseries privées autonomes et indépendantes. Bien que les brasseries indépendantes soient parfois considérées comme des concurrents directs sur le marché de la bière, elles poursuivent ensemble la préservation de la culture de la bière allemande, autrichienne et hollandaise. Avec la fondation de l'initiative des Freien Brauer, la Deutsche Brau-Kooperation présente pour la première fois au public en septembre 2005 des objectifs et des valeurs. Tous les membres de l'association représentent les sept valeurs : liberté, responsabilité, diversité, qualité, environnement, tradition et régionalisme.
@@ -546,7 +560,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les brasseries suivantes sont membres en janvier 2018 :
 Anciens membres
